--- a/Datas/Tables/RoleRes.xlsx
+++ b/Datas/Tables/RoleRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -73,16 +73,34 @@
     <t>Prefab/Role/星见雅</t>
   </si>
   <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>Animation/Move</t>
-  </si>
-  <si>
-    <t>rush</t>
-  </si>
-  <si>
-    <t>Animation/Rush</t>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>Animation/XingJianYa/A01_Idle.anim</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>Animation/XingJianYa/Walk_Loop_ok_maya.anim</t>
+  </si>
+  <si>
+    <t>idle_afk</t>
+  </si>
+  <si>
+    <t>Animation/XingJianYa/A01_Idle_AFK.anim</t>
+  </si>
+  <si>
+    <t>run_start</t>
+  </si>
+  <si>
+    <t>Animation/XingJianYa/A06_RunA_A_Start.anim</t>
+  </si>
+  <si>
+    <t>run_loop</t>
+  </si>
+  <si>
+    <t>Animation/XingJianYa/A06_RunA_B_Loop.anim</t>
   </si>
 </sst>
 </file>
@@ -1025,19 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="27.0083333333333" customWidth="1"/>
     <col min="6" max="6" width="15.3833333333333" customWidth="1"/>
-    <col min="7" max="8" width="18.075" customWidth="1"/>
+    <col min="7" max="7" width="42.3083333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.075" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:11">
@@ -1150,6 +1169,40 @@
       </c>
       <c r="I5">
         <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
